--- a/notebooks/LZTR1/input/LZTR1_NS2_individuals.xlsx
+++ b/notebooks/LZTR1/input/LZTR1_NS2_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/LZTR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F76431-ABBE-1743-98C5-212B4DC92596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D10566-0DD3-8140-BE73-45962722EF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="37300" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="253">
   <si>
     <t>PMID</t>
   </si>
@@ -786,6 +786,12 @@
   </si>
   <si>
     <t>P14Y</t>
+  </si>
+  <si>
+    <t>PMID:39003740</t>
+  </si>
+  <si>
+    <t>Mutation-induced LZTR1 polymerization provokes cardiac pathology in recessive Noonan syndrome</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1216,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="CB1" sqref="CB1:CB1048576"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5285,6 +5291,12 @@
       <c r="CH23" s="6"/>
     </row>
     <row r="24" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" t="s">
+        <v>252</v>
+      </c>
       <c r="AN24" s="8"/>
     </row>
   </sheetData>

--- a/notebooks/LZTR1/input/LZTR1_NS2_individuals.xlsx
+++ b/notebooks/LZTR1/input/LZTR1_NS2_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/LZTR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D10566-0DD3-8140-BE73-45962722EF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FE8626-FF27-5D40-98A1-764DC482BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="37300" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="9300" windowWidth="37900" windowHeight="8120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="359">
   <si>
     <t>PMID</t>
   </si>
@@ -792,15 +792,340 @@
   </si>
   <si>
     <t>Mutation-induced LZTR1 polymerization provokes cardiac pathology in recessive Noonan syndrome</t>
+  </si>
+  <si>
+    <t>P17Y</t>
+  </si>
+  <si>
+    <t>c.1739T&gt;C</t>
+  </si>
+  <si>
+    <t>Pericardial effusion</t>
+  </si>
+  <si>
+    <t>HP:0001698</t>
+  </si>
+  <si>
+    <t>Prolonged QT interval</t>
+  </si>
+  <si>
+    <t>HP:0001657</t>
+  </si>
+  <si>
+    <t>Triangular face</t>
+  </si>
+  <si>
+    <t>HP:0000325</t>
+  </si>
+  <si>
+    <t>Clinodactyly</t>
+  </si>
+  <si>
+    <t>HP:0030084</t>
+  </si>
+  <si>
+    <t>Sensorineural hearing impairment</t>
+  </si>
+  <si>
+    <t>HP:0000407</t>
+  </si>
+  <si>
+    <t>PMID:38982897</t>
+  </si>
+  <si>
+    <t>Biventricular outflow tract obstruction due to hypertrophy related to compound heterozygous variants in LZTR1</t>
+  </si>
+  <si>
+    <t>Case report</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>NP_006758.2:p.(Leu580Pro)</t>
+  </si>
+  <si>
+    <t>c.1549del</t>
+  </si>
+  <si>
+    <t>c.1735G&gt;A</t>
+  </si>
+  <si>
+    <t>p.E517Rfs*39 and p.V579M</t>
+  </si>
+  <si>
+    <t>PMID:30859559</t>
+  </si>
+  <si>
+    <t>Delineation of dominant and recessive forms of LZTR1-associated Noonan syndrome</t>
+  </si>
+  <si>
+    <t>Patient 272332</t>
+  </si>
+  <si>
+    <t>Patient 279914</t>
+  </si>
+  <si>
+    <t>Patient 284672</t>
+  </si>
+  <si>
+    <t>Patient O1409410</t>
+  </si>
+  <si>
+    <t>Patient O1409412</t>
+  </si>
+  <si>
+    <t>Patient O1504902</t>
+  </si>
+  <si>
+    <t>c.1591G&gt;A</t>
+  </si>
+  <si>
+    <t>NP_006758.2:p.(D531N)/p.(R210*)</t>
+  </si>
+  <si>
+    <t>c.1149+1G&gt;T</t>
+  </si>
+  <si>
+    <t>c.2062C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_006758.2:p.(R688C)</t>
+  </si>
+  <si>
+    <t>NP_006758.2:p.(R210*)/p.(V579M)</t>
+  </si>
+  <si>
+    <t>c.1311G&gt;A</t>
+  </si>
+  <si>
+    <t>c.-38T&gt;A</t>
+  </si>
+  <si>
+    <t>NP_006758.2:p.(W437*)</t>
+  </si>
+  <si>
+    <t>c.1407G&gt;A</t>
+  </si>
+  <si>
+    <t>c.2246A&gt;G</t>
+  </si>
+  <si>
+    <t>NP_006758.2:p.(W469*)/p.(Y749C)</t>
+  </si>
+  <si>
+    <t>c.1382C&gt;A</t>
+  </si>
+  <si>
+    <t>c.1385T&gt;C</t>
+  </si>
+  <si>
+    <t>NP_006758.2:p.(A461D)/p.(I462T)</t>
+  </si>
+  <si>
+    <t>P9Y4M</t>
+  </si>
+  <si>
+    <t>P6Y8M</t>
+  </si>
+  <si>
+    <t>P8Y6M</t>
+  </si>
+  <si>
+    <t>P20Y</t>
+  </si>
+  <si>
+    <t>P32Y</t>
+  </si>
+  <si>
+    <t>P4Y3M</t>
+  </si>
+  <si>
+    <t>Microcephaly</t>
+  </si>
+  <si>
+    <t>HP:0000252</t>
+  </si>
+  <si>
+    <t>Broad forehead</t>
+  </si>
+  <si>
+    <t>HP:0000337</t>
+  </si>
+  <si>
+    <t>High forehead</t>
+  </si>
+  <si>
+    <t>HP:0000348</t>
+  </si>
+  <si>
+    <t>Prominent metopic ridge</t>
+  </si>
+  <si>
+    <t>HP:0005487</t>
+  </si>
+  <si>
+    <t>Blue irides</t>
+  </si>
+  <si>
+    <t>HP:0000635</t>
+  </si>
+  <si>
+    <t>Long palpebral fissure</t>
+  </si>
+  <si>
+    <t>HP:0000637</t>
+  </si>
+  <si>
+    <t>Retrognathia</t>
+  </si>
+  <si>
+    <t>HP:0000278</t>
+  </si>
+  <si>
+    <t>Dental malocclusion</t>
+  </si>
+  <si>
+    <t>HP:0000689</t>
+  </si>
+  <si>
+    <t>Macrodontia</t>
+  </si>
+  <si>
+    <t>HP:0001572</t>
+  </si>
+  <si>
+    <t>High anterior hairline</t>
+  </si>
+  <si>
+    <t>HP:0009890</t>
+  </si>
+  <si>
+    <t>Coarse facial features</t>
+  </si>
+  <si>
+    <t>HP:0000280</t>
+  </si>
+  <si>
+    <t>Long face</t>
+  </si>
+  <si>
+    <t>HP:0000276</t>
+  </si>
+  <si>
+    <t>Prominent nasolabial fold</t>
+  </si>
+  <si>
+    <t>HP:0005272</t>
+  </si>
+  <si>
+    <t>Mitral regurgitation</t>
+  </si>
+  <si>
+    <t>HP:0001653</t>
+  </si>
+  <si>
+    <t>Hirsutism</t>
+  </si>
+  <si>
+    <t>HP:0001007</t>
+  </si>
+  <si>
+    <t>Single transverse palmar crease</t>
+  </si>
+  <si>
+    <t>HP:0000954</t>
+  </si>
+  <si>
+    <t>2-3 toe syndactyly</t>
+  </si>
+  <si>
+    <t>HP:0004691</t>
+  </si>
+  <si>
+    <t>Pes planus</t>
+  </si>
+  <si>
+    <t>HP:0001763</t>
+  </si>
+  <si>
+    <t>Autistic behavior</t>
+  </si>
+  <si>
+    <t>HP:0000729</t>
+  </si>
+  <si>
+    <t>Delayed speech and language development</t>
+  </si>
+  <si>
+    <t>HP:0000750</t>
+  </si>
+  <si>
+    <t>Delayed ability to walk</t>
+  </si>
+  <si>
+    <t>HP:0031936</t>
+  </si>
+  <si>
+    <t>Hypotonia</t>
+  </si>
+  <si>
+    <t>HP:0001252</t>
+  </si>
+  <si>
+    <t>Feeding difficulties</t>
+  </si>
+  <si>
+    <t>HP:0011968</t>
+  </si>
+  <si>
+    <t>PMID:31182298</t>
+  </si>
+  <si>
+    <t>Two Novel Cases of Autosomal Recessive Noonan Syndrome Associated With LZTR1 Variants</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>P4Y</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>c.1084C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_006758.2:p.(R362*)</t>
+  </si>
+  <si>
+    <t>c.2070-2A&gt;G</t>
+  </si>
+  <si>
+    <t>NP_006758.2:p.(Val579Met)</t>
+  </si>
+  <si>
+    <t>NS659</t>
+  </si>
+  <si>
+    <t>NP_006758.2:p.(Pro701His)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -860,6 +1185,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -896,20 +1227,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,12 +1547,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH24"/>
+  <dimension ref="A1:DJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1228,11 +1561,11 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="12" width="8.83203125" customWidth="1"/>
-    <col min="16" max="20" width="8.83203125" customWidth="1"/>
-    <col min="22" max="44" width="8.83203125" customWidth="1"/>
+    <col min="16" max="21" width="8.83203125" customWidth="1"/>
+    <col min="24" max="57" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1288,211 +1621,295 @@
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AO1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AX1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="BF1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="BP1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="BS1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="BU1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="BX1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="CA1" s="3" t="s">
         <v>179</v>
       </c>
       <c r="CB1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CK1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="CN1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CO1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="CQ1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="CR1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="CT1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="CU1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="CW1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CX1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CY1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="DA1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="DB1" s="3" t="s">
         <v>245</v>
       </c>
+      <c r="DC1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="DD1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="DE1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="DF1" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="DG1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="DH1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="DI1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="DJ1" s="3" t="s">
+        <v>346</v>
+      </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1548,211 +1965,295 @@
         <v>35</v>
       </c>
       <c r="S2" t="s">
+        <v>313</v>
+      </c>
+      <c r="T2" t="s">
         <v>182</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>327</v>
+      </c>
+      <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>39</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>86</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE2" t="s">
         <v>88</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI2" t="s">
         <v>148</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AJ2" t="s">
         <v>236</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AK2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO2" t="s">
         <v>193</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AP2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>115</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AR2" t="s">
         <v>150</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AS2" t="s">
         <v>152</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AT2" t="s">
         <v>120</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AU2" t="s">
         <v>220</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AV2" t="s">
         <v>218</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AW2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AX2" t="s">
         <v>178</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AY2" t="s">
         <v>176</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AZ2" t="s">
         <v>187</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="BA2" t="s">
         <v>190</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="BB2" t="s">
         <v>174</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="BC2" t="s">
         <v>125</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BD2" t="s">
         <v>127</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BE2" t="s">
+        <v>329</v>
+      </c>
+      <c r="BF2" t="s">
         <v>129</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BG2" t="s">
         <v>234</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BH2" t="s">
         <v>131</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BI2" t="s">
         <v>200</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BJ2" t="s">
         <v>197</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BK2" t="s">
         <v>195</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BL2" t="s">
         <v>216</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BM2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>319</v>
+      </c>
+      <c r="BP2" t="s">
         <v>214</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BQ2" t="s">
+        <v>307</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>305</v>
+      </c>
+      <c r="BS2" t="s">
         <v>212</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BT2" t="s">
+        <v>309</v>
+      </c>
+      <c r="BU2" t="s">
         <v>210</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BV2" t="s">
         <v>144</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BW2" t="s">
+        <v>311</v>
+      </c>
+      <c r="BX2" t="s">
         <v>172</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BY2" t="s">
         <v>184</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BZ2" t="s">
         <v>170</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>232</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>154</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>168</v>
       </c>
       <c r="CA2" t="s">
         <v>180</v>
       </c>
       <c r="CB2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>123</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>232</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>230</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>228</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>224</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>222</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>135</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>137</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>139</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>154</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>163</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>166</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>168</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>180</v>
+      </c>
+      <c r="CU2" t="s">
         <v>206</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CV2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CW2" t="s">
         <v>208</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CX2" t="s">
         <v>238</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CY2" t="s">
         <v>240</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CZ2" t="s">
         <v>242</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="DA2" t="s">
         <v>244</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="DB2" t="s">
         <v>246</v>
       </c>
+      <c r="DC2" t="s">
+        <v>258</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>264</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>331</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>333</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>335</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>337</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>347</v>
+      </c>
     </row>
-    <row r="3" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:114" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -1804,23 +2305,17 @@
       <c r="R3" t="s">
         <v>80</v>
       </c>
-      <c r="S3" t="s">
-        <v>80</v>
-      </c>
       <c r="T3" t="s">
         <v>80</v>
       </c>
       <c r="U3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="s">
         <v>80</v>
@@ -1829,89 +2324,71 @@
         <v>79</v>
       </c>
       <c r="AA3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s">
         <v>79</v>
       </c>
       <c r="AC3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>116</v>
       </c>
-      <c r="AG3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>80</v>
       </c>
       <c r="AS3" t="s">
         <v>80</v>
       </c>
-      <c r="AU3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>80</v>
+      <c r="AT3" t="s">
+        <v>79</v>
       </c>
       <c r="AX3" t="s">
         <v>80</v>
       </c>
+      <c r="AZ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>80</v>
+      </c>
       <c r="BC3" t="s">
         <v>80</v>
       </c>
-      <c r="BD3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>80</v>
-      </c>
       <c r="BF3" t="s">
         <v>80</v>
       </c>
-      <c r="BG3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>79</v>
+      <c r="BH3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>80</v>
       </c>
       <c r="BV3" t="s">
         <v>80</v>
       </c>
-      <c r="BW3" t="s">
-        <v>80</v>
-      </c>
       <c r="BX3" t="s">
         <v>80</v>
       </c>
@@ -1921,8 +2398,32 @@
       <c r="BZ3" t="s">
         <v>80</v>
       </c>
+      <c r="CK3" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>80</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>79</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="4" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -1971,9 +2472,6 @@
       <c r="R4" t="s">
         <v>80</v>
       </c>
-      <c r="S4" t="s">
-        <v>80</v>
-      </c>
       <c r="T4" t="s">
         <v>80</v>
       </c>
@@ -1981,13 +2479,10 @@
         <v>80</v>
       </c>
       <c r="V4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="s">
         <v>79</v>
@@ -2002,100 +2497,106 @@
         <v>79</v>
       </c>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT4" t="s">
         <v>65</v>
       </c>
-      <c r="AL4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU4" t="s">
+      <c r="AX4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH4" t="s">
         <v>65</v>
       </c>
-      <c r="AV4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC4" t="s">
+      <c r="BI4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV4" t="s">
         <v>65</v>
       </c>
-      <c r="BD4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI4" t="s">
+      <c r="BX4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC4" t="s">
         <v>121</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="CJ4" t="s">
         <v>65</v>
       </c>
-      <c r="BR4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS4" t="s">
+      <c r="CK4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL4" t="s">
         <v>65</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="CM4" t="s">
         <v>65</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="CO4" t="s">
         <v>121</v>
       </c>
-      <c r="BW4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ4" t="s">
+      <c r="CP4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -2144,9 +2645,6 @@
       <c r="R5" t="s">
         <v>80</v>
       </c>
-      <c r="S5" t="s">
-        <v>80</v>
-      </c>
       <c r="T5" t="s">
         <v>80</v>
       </c>
@@ -2154,118 +2652,121 @@
         <v>80</v>
       </c>
       <c r="V5" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>155</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AR5" t="s">
         <v>66</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AS5" t="s">
         <v>66</v>
       </c>
-      <c r="AI5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW5" t="s">
+      <c r="AT5" t="s">
         <v>80</v>
       </c>
       <c r="AX5" t="s">
         <v>80</v>
       </c>
+      <c r="AZ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>80</v>
+      </c>
       <c r="BC5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV5" t="s">
         <v>66</v>
       </c>
-      <c r="BD5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI5" t="s">
+      <c r="BX5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC5" t="s">
         <v>121</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="CJ5" t="s">
         <v>66</v>
       </c>
-      <c r="BR5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS5" t="s">
+      <c r="CK5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL5" t="s">
         <v>66</v>
       </c>
-      <c r="BV5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW5" t="s">
+      <c r="CO5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP5" t="s">
         <v>66</v>
       </c>
-      <c r="BX5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ5" t="s">
+      <c r="CQ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -2314,9 +2815,6 @@
       <c r="R6" t="s">
         <v>80</v>
       </c>
-      <c r="S6" t="s">
-        <v>80</v>
-      </c>
       <c r="T6" t="s">
         <v>80</v>
       </c>
@@ -2326,117 +2824,124 @@
       <c r="V6" t="s">
         <v>80</v>
       </c>
-      <c r="W6" t="s">
-        <v>80</v>
-      </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA6" t="s">
         <v>79</v>
       </c>
       <c r="AB6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD6" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>79</v>
+      </c>
       <c r="AE6" t="s">
         <v>79</v>
       </c>
-      <c r="AF6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>80</v>
-      </c>
+      <c r="AI6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
       <c r="AO6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AQ6" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>80</v>
       </c>
       <c r="AS6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT6" t="s">
         <v>80</v>
       </c>
       <c r="AX6" t="s">
         <v>80</v>
       </c>
+      <c r="AZ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>80</v>
+      </c>
       <c r="BC6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH6" t="s">
         <v>80</v>
       </c>
       <c r="BI6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>160</v>
+      </c>
+      <c r="CC6" t="s">
         <v>161</v>
       </c>
-      <c r="BP6" t="s">
-        <v>160</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ6" t="s">
+      <c r="CK6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -2488,26 +2993,20 @@
       <c r="R7" t="s">
         <v>79</v>
       </c>
-      <c r="S7" t="s">
-        <v>79</v>
-      </c>
       <c r="T7" t="s">
         <v>79</v>
       </c>
       <c r="U7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
-      </c>
-      <c r="W7" t="s">
         <v>80</v>
       </c>
       <c r="X7" t="s">
         <v>79</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s">
         <v>79</v>
@@ -2524,89 +3023,95 @@
       <c r="AE7" t="s">
         <v>79</v>
       </c>
-      <c r="AF7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>80</v>
-      </c>
       <c r="AI7" t="s">
         <v>79</v>
       </c>
-      <c r="AL7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>80</v>
-      </c>
       <c r="AO7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP7" t="s">
         <v>79</v>
       </c>
       <c r="AQ7" t="s">
         <v>80</v>
       </c>
+      <c r="AR7" t="s">
+        <v>80</v>
+      </c>
       <c r="AS7" t="s">
         <v>80</v>
       </c>
-      <c r="AU7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>80</v>
+      <c r="AT7" t="s">
+        <v>79</v>
       </c>
       <c r="AX7" t="s">
         <v>80</v>
       </c>
+      <c r="AY7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>79</v>
+      </c>
       <c r="BC7" t="s">
         <v>80</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BF7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX7" t="s">
         <v>161</v>
       </c>
-      <c r="BE7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>161</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>164</v>
-      </c>
       <c r="BY7" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="BZ7" t="s">
         <v>161</v>
       </c>
+      <c r="CK7" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>164</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>164</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="8" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -2655,11 +3160,8 @@
       <c r="R8" t="s">
         <v>80</v>
       </c>
-      <c r="S8" t="s">
-        <v>79</v>
-      </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s">
         <v>80</v>
@@ -2667,11 +3169,8 @@
       <c r="V8" t="s">
         <v>80</v>
       </c>
-      <c r="W8" t="s">
-        <v>80</v>
-      </c>
       <c r="X8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s">
         <v>80</v>
@@ -2680,10 +3179,10 @@
         <v>79</v>
       </c>
       <c r="AA8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s">
         <v>79</v>
@@ -2691,86 +3190,92 @@
       <c r="AE8" t="s">
         <v>80</v>
       </c>
-      <c r="AF8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>80</v>
-      </c>
       <c r="AI8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO8" t="s">
         <v>80</v>
       </c>
-      <c r="AP8" t="s">
-        <v>80</v>
-      </c>
       <c r="AQ8" t="s">
         <v>80</v>
       </c>
+      <c r="AR8" t="s">
+        <v>80</v>
+      </c>
       <c r="AS8" t="s">
         <v>80</v>
       </c>
-      <c r="AU8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW8" t="s">
+      <c r="AT8" t="s">
         <v>80</v>
       </c>
       <c r="AX8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB8" t="s">
         <v>80</v>
       </c>
       <c r="BC8" t="s">
         <v>80</v>
       </c>
-      <c r="BD8" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>80</v>
-      </c>
       <c r="BF8" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM8" t="s">
         <v>80</v>
       </c>
       <c r="BV8" t="s">
         <v>80</v>
       </c>
-      <c r="BW8" t="s">
-        <v>80</v>
-      </c>
       <c r="BX8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ8" t="s">
         <v>164</v>
       </c>
-      <c r="BY8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ8" t="s">
+      <c r="CR8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -2819,32 +3324,26 @@
       <c r="R9" t="s">
         <v>34</v>
       </c>
-      <c r="S9" t="s">
-        <v>79</v>
-      </c>
-      <c r="U9" t="s">
-        <v>80</v>
+      <c r="T9" t="s">
+        <v>79</v>
       </c>
       <c r="V9" t="s">
-        <v>34</v>
-      </c>
-      <c r="W9" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s">
         <v>34</v>
       </c>
       <c r="Y9" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="s">
         <v>34</v>
       </c>
       <c r="AA9" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="s">
         <v>34</v>
@@ -2852,89 +3351,95 @@
       <c r="AE9" t="s">
         <v>79</v>
       </c>
-      <c r="AF9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>80</v>
-      </c>
       <c r="AI9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP9" t="s">
         <v>79</v>
       </c>
       <c r="AQ9" t="s">
         <v>80</v>
       </c>
+      <c r="AR9" t="s">
+        <v>80</v>
+      </c>
       <c r="AS9" t="s">
         <v>80</v>
       </c>
-      <c r="AU9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW9" t="s">
+      <c r="AT9" t="s">
         <v>80</v>
       </c>
       <c r="AX9" t="s">
         <v>80</v>
       </c>
+      <c r="AZ9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>79</v>
+      </c>
       <c r="BC9" t="s">
         <v>80</v>
       </c>
-      <c r="BD9" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>80</v>
-      </c>
       <c r="BF9" t="s">
         <v>80</v>
       </c>
-      <c r="BG9" t="s">
-        <v>80</v>
-      </c>
       <c r="BH9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA9" t="s">
         <v>164</v>
       </c>
-      <c r="BR9" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX9" t="s">
+      <c r="CK9" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>79</v>
+      </c>
+      <c r="CQ9" t="s">
         <v>164</v>
       </c>
-      <c r="BY9" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ9" t="s">
+      <c r="CR9" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -2983,35 +3488,29 @@
       <c r="R10" t="s">
         <v>79</v>
       </c>
-      <c r="S10" t="s">
-        <v>79</v>
-      </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s">
-        <v>34</v>
-      </c>
-      <c r="W10" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s">
         <v>34</v>
       </c>
       <c r="Y10" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="s">
         <v>34</v>
       </c>
       <c r="AA10" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="s">
         <v>34</v>
@@ -3019,89 +3518,95 @@
       <c r="AE10" t="s">
         <v>80</v>
       </c>
-      <c r="AF10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>80</v>
-      </c>
       <c r="AI10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="s">
         <v>80</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB10" t="s">
         <v>160</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>80</v>
-      </c>
       <c r="BC10" t="s">
         <v>80</v>
       </c>
-      <c r="BD10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>79</v>
-      </c>
       <c r="BF10" t="s">
         <v>80</v>
       </c>
-      <c r="BG10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BP10" t="s">
+      <c r="BH10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB10" t="s">
         <v>160</v>
       </c>
-      <c r="BR10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ10" t="s">
+      <c r="CK10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3153,9 +3658,6 @@
       <c r="R11" t="s">
         <v>79</v>
       </c>
-      <c r="S11" t="s">
-        <v>79</v>
-      </c>
       <c r="T11" t="s">
         <v>79</v>
       </c>
@@ -3163,101 +3665,83 @@
         <v>79</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
-      </c>
-      <c r="W11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s">
         <v>79</v>
       </c>
       <c r="AB11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s">
         <v>79</v>
       </c>
       <c r="AE11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>69</v>
       </c>
-      <c r="AG11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>80</v>
       </c>
       <c r="AS11" t="s">
         <v>80</v>
       </c>
-      <c r="AU11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>80</v>
+      <c r="AT11" t="s">
+        <v>79</v>
       </c>
       <c r="AX11" t="s">
         <v>80</v>
       </c>
+      <c r="AZ11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>80</v>
+      </c>
       <c r="BC11" t="s">
         <v>80</v>
       </c>
-      <c r="BD11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>80</v>
-      </c>
       <c r="BF11" t="s">
         <v>80</v>
       </c>
-      <c r="BG11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS11" t="s">
+      <c r="BH11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM11" t="s">
         <v>80</v>
       </c>
       <c r="BV11" t="s">
         <v>80</v>
       </c>
-      <c r="BW11" t="s">
-        <v>80</v>
-      </c>
       <c r="BX11" t="s">
         <v>80</v>
       </c>
@@ -3267,8 +3751,29 @@
       <c r="BZ11" t="s">
         <v>80</v>
       </c>
+      <c r="CK11" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="12" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -3317,113 +3822,113 @@
       <c r="R12" t="s">
         <v>34</v>
       </c>
-      <c r="S12" t="s">
-        <v>79</v>
-      </c>
       <c r="T12" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="V12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s">
         <v>34</v>
       </c>
       <c r="AE12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH12" t="s">
         <v>80</v>
       </c>
       <c r="AI12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ12" t="s">
         <v>160</v>
       </c>
-      <c r="AO12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX12" t="s">
+      <c r="BA12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB12" t="s">
         <v>80</v>
       </c>
       <c r="BC12" t="s">
         <v>80</v>
       </c>
-      <c r="BD12" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>80</v>
-      </c>
       <c r="BF12" t="s">
         <v>80</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BH12" t="s">
         <v>80</v>
       </c>
       <c r="BI12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC12" t="s">
         <v>161</v>
       </c>
-      <c r="BR12" t="s">
+      <c r="CK12" t="s">
         <v>161</v>
       </c>
-      <c r="BS12" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ12" t="s">
+      <c r="CL12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -3475,23 +3980,17 @@
       <c r="R13" t="s">
         <v>79</v>
       </c>
-      <c r="S13" t="s">
-        <v>79</v>
-      </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W13" t="s">
         <v>79</v>
       </c>
       <c r="X13" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="s">
         <v>79</v>
@@ -3503,100 +4002,106 @@
         <v>79</v>
       </c>
       <c r="AB13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s">
         <v>80</v>
       </c>
-      <c r="AF13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>80</v>
-      </c>
       <c r="AI13" t="s">
         <v>80</v>
       </c>
-      <c r="AL13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>80</v>
-      </c>
       <c r="AO13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA13" t="s">
         <v>160</v>
       </c>
-      <c r="AP13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX13" t="s">
+      <c r="BB13" t="s">
         <v>80</v>
       </c>
       <c r="BC13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE13" t="s">
         <v>80</v>
       </c>
       <c r="BF13" t="s">
         <v>80</v>
       </c>
-      <c r="BG13" t="s">
-        <v>80</v>
-      </c>
       <c r="BH13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA13" t="s">
         <v>160</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="CB13" t="s">
         <v>160</v>
       </c>
-      <c r="BR13" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ13" t="s">
+      <c r="CK13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -3645,20 +4150,14 @@
       <c r="R14" t="s">
         <v>34</v>
       </c>
-      <c r="S14" t="s">
-        <v>34</v>
-      </c>
       <c r="T14" t="s">
         <v>34</v>
       </c>
       <c r="U14" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="V14" t="s">
-        <v>34</v>
-      </c>
-      <c r="W14" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s">
         <v>34</v>
@@ -3666,101 +4165,107 @@
       <c r="Y14" t="s">
         <v>34</v>
       </c>
-      <c r="AB14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="s">
+      <c r="Z14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="s">
         <v>34</v>
       </c>
       <c r="AE14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH14" t="s">
         <v>80</v>
       </c>
       <c r="AI14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AO14" t="s">
         <v>79</v>
       </c>
-      <c r="AP14" t="s">
-        <v>80</v>
-      </c>
       <c r="AQ14" t="s">
         <v>80</v>
       </c>
+      <c r="AR14" t="s">
+        <v>80</v>
+      </c>
       <c r="AS14" t="s">
         <v>80</v>
       </c>
-      <c r="AU14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW14" t="s">
+      <c r="AT14" t="s">
         <v>80</v>
       </c>
       <c r="AX14" t="s">
         <v>80</v>
       </c>
+      <c r="AZ14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>80</v>
+      </c>
       <c r="BC14" t="s">
         <v>80</v>
       </c>
-      <c r="BD14" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>80</v>
-      </c>
       <c r="BF14" t="s">
         <v>80</v>
       </c>
-      <c r="BG14" t="s">
-        <v>80</v>
-      </c>
       <c r="BH14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA14" t="s">
         <v>191</v>
       </c>
-      <c r="BP14" t="s">
+      <c r="CB14" t="s">
         <v>191</v>
       </c>
-      <c r="BR14" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY14" t="s">
+      <c r="CK14" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR14" t="s">
         <v>191</v>
       </c>
-      <c r="BZ14" t="s">
+      <c r="CS14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -3812,20 +4317,14 @@
       <c r="R15" t="s">
         <v>79</v>
       </c>
-      <c r="S15" t="s">
-        <v>34</v>
-      </c>
       <c r="T15" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="U15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s">
-        <v>34</v>
-      </c>
-      <c r="W15" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s">
         <v>34</v>
@@ -3834,103 +4333,109 @@
         <v>34</v>
       </c>
       <c r="Z15" t="s">
-        <v>79</v>
+        <v>34</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>34</v>
       </c>
       <c r="AB15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH15" t="s">
         <v>80</v>
       </c>
       <c r="AI15" t="s">
         <v>80</v>
       </c>
-      <c r="AL15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>80</v>
-      </c>
       <c r="AO15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP15" t="s">
         <v>79</v>
       </c>
       <c r="AQ15" t="s">
         <v>80</v>
       </c>
+      <c r="AR15" t="s">
+        <v>80</v>
+      </c>
       <c r="AS15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>80</v>
       </c>
       <c r="AX15" t="s">
         <v>80</v>
       </c>
+      <c r="AZ15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>79</v>
+      </c>
       <c r="BC15" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE15" t="s">
         <v>80</v>
       </c>
       <c r="BF15" t="s">
         <v>79</v>
       </c>
-      <c r="BG15" t="s">
-        <v>80</v>
-      </c>
       <c r="BH15" t="s">
         <v>80</v>
       </c>
-      <c r="BP15" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS15" t="s">
+      <c r="BI15" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM15" t="s">
         <v>80</v>
       </c>
       <c r="BV15" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BX15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ15" t="s">
         <v>160</v>
       </c>
-      <c r="BY15" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ15" t="s">
+      <c r="CR15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -3982,23 +4487,17 @@
       <c r="R16" t="s">
         <v>79</v>
       </c>
-      <c r="S16" t="s">
-        <v>79</v>
-      </c>
       <c r="T16" t="s">
         <v>79</v>
       </c>
       <c r="U16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s">
         <v>80</v>
       </c>
-      <c r="W16" t="s">
-        <v>79</v>
-      </c>
       <c r="X16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s">
         <v>79</v>
@@ -4007,100 +4506,106 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s">
         <v>79</v>
       </c>
       <c r="AC16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s">
         <v>79</v>
       </c>
-      <c r="AF16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>80</v>
-      </c>
       <c r="AI16" t="s">
         <v>79</v>
       </c>
-      <c r="AL16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>80</v>
-      </c>
       <c r="AO16" t="s">
         <v>79</v>
       </c>
-      <c r="AP16" t="s">
-        <v>79</v>
-      </c>
       <c r="AQ16" t="s">
         <v>80</v>
       </c>
+      <c r="AR16" t="s">
+        <v>79</v>
+      </c>
       <c r="AS16" t="s">
         <v>80</v>
       </c>
-      <c r="AU16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>80</v>
+      <c r="AT16" t="s">
+        <v>79</v>
       </c>
       <c r="AX16" t="s">
         <v>80</v>
       </c>
+      <c r="AZ16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>79</v>
+      </c>
       <c r="BC16" t="s">
         <v>80</v>
       </c>
-      <c r="BD16" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>80</v>
-      </c>
       <c r="BF16" t="s">
         <v>80</v>
       </c>
-      <c r="BG16" t="s">
-        <v>80</v>
-      </c>
       <c r="BH16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA16" t="s">
         <v>160</v>
       </c>
-      <c r="BR16" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ16" t="s">
+      <c r="CK16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -4152,9 +4657,6 @@
       <c r="R17" t="s">
         <v>79</v>
       </c>
-      <c r="S17" t="s">
-        <v>79</v>
-      </c>
       <c r="T17" t="s">
         <v>79</v>
       </c>
@@ -4164,9 +4666,6 @@
       <c r="V17" t="s">
         <v>79</v>
       </c>
-      <c r="W17" t="s">
-        <v>79</v>
-      </c>
       <c r="X17" t="s">
         <v>79</v>
       </c>
@@ -4174,92 +4673,74 @@
         <v>79</v>
       </c>
       <c r="Z17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s">
         <v>80</v>
       </c>
       <c r="AC17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s">
         <v>80</v>
       </c>
       <c r="AI17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO17" t="s">
         <v>79</v>
       </c>
-      <c r="AP17" t="s">
-        <v>79</v>
-      </c>
       <c r="AQ17" t="s">
         <v>80</v>
       </c>
+      <c r="AR17" t="s">
+        <v>80</v>
+      </c>
       <c r="AS17" t="s">
         <v>80</v>
       </c>
-      <c r="AU17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW17" t="s">
+      <c r="AT17" t="s">
         <v>80</v>
       </c>
       <c r="AX17" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>79</v>
       </c>
       <c r="BC17" t="s">
         <v>80</v>
       </c>
-      <c r="BD17" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>80</v>
-      </c>
       <c r="BF17" t="s">
         <v>80</v>
       </c>
-      <c r="BG17" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS17" t="s">
+      <c r="BH17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM17" t="s">
         <v>80</v>
       </c>
       <c r="BV17" t="s">
         <v>80</v>
       </c>
-      <c r="BW17" t="s">
-        <v>80</v>
-      </c>
       <c r="BX17" t="s">
         <v>80</v>
       </c>
@@ -4269,8 +4750,32 @@
       <c r="BZ17" t="s">
         <v>80</v>
       </c>
+      <c r="CJ17" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="18" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -4322,26 +4827,20 @@
       <c r="R18" t="s">
         <v>79</v>
       </c>
-      <c r="S18" t="s">
-        <v>79</v>
-      </c>
       <c r="T18" t="s">
         <v>79</v>
       </c>
       <c r="U18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s">
-        <v>34</v>
-      </c>
-      <c r="W18" t="s">
         <v>80</v>
       </c>
       <c r="X18" t="s">
         <v>34</v>
       </c>
       <c r="Y18" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s">
         <v>34</v>
@@ -4350,88 +4849,67 @@
         <v>34</v>
       </c>
       <c r="AB18" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="s">
         <v>80</v>
       </c>
-      <c r="AF18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>80</v>
-      </c>
       <c r="AI18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s">
         <v>80</v>
       </c>
-      <c r="AP18" t="s">
-        <v>80</v>
-      </c>
       <c r="AQ18" t="s">
         <v>80</v>
       </c>
+      <c r="AR18" t="s">
+        <v>80</v>
+      </c>
       <c r="AS18" t="s">
         <v>80</v>
       </c>
-      <c r="AU18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW18" t="s">
+      <c r="AT18" t="s">
         <v>80</v>
       </c>
       <c r="AX18" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>80</v>
       </c>
       <c r="BC18" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE18" t="s">
         <v>80</v>
       </c>
       <c r="BF18" t="s">
         <v>80</v>
       </c>
-      <c r="BG18" t="s">
-        <v>79</v>
-      </c>
       <c r="BH18" t="s">
-        <v>80</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>79</v>
       </c>
       <c r="BV18" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BX18" t="s">
         <v>80</v>
@@ -4442,8 +4920,35 @@
       <c r="BZ18" t="s">
         <v>80</v>
       </c>
+      <c r="CA18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="19" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -4495,29 +5000,23 @@
       <c r="R19" t="s">
         <v>80</v>
       </c>
-      <c r="S19" t="s">
-        <v>79</v>
-      </c>
       <c r="T19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s">
         <v>80</v>
       </c>
       <c r="V19" t="s">
-        <v>34</v>
-      </c>
-      <c r="W19" t="s">
         <v>80</v>
       </c>
       <c r="X19" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s">
         <v>79</v>
@@ -4529,94 +5028,100 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s">
         <v>80</v>
       </c>
       <c r="AI19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AQ19" t="s">
         <v>80</v>
       </c>
+      <c r="AR19" t="s">
+        <v>80</v>
+      </c>
       <c r="AS19" t="s">
         <v>80</v>
       </c>
-      <c r="AU19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW19" t="s">
+      <c r="AT19" t="s">
         <v>80</v>
       </c>
       <c r="AX19" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>80</v>
       </c>
       <c r="BC19" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE19" t="s">
         <v>80</v>
       </c>
       <c r="BF19" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG19" t="s">
         <v>80</v>
       </c>
       <c r="BH19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA19" t="s">
         <v>160</v>
       </c>
-      <c r="BP19" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS19" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW19" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX19" s="1" t="s">
+      <c r="CB19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>79</v>
+      </c>
+      <c r="CQ19" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BY19" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ19" t="s">
+      <c r="CR19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -4665,126 +5170,126 @@
       <c r="R20" t="s">
         <v>79</v>
       </c>
-      <c r="S20" t="s">
-        <v>79</v>
-      </c>
       <c r="T20" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="V20" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="s">
         <v>34</v>
       </c>
       <c r="AE20" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s">
         <v>80</v>
       </c>
       <c r="AI20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AQ20" t="s">
         <v>80</v>
       </c>
+      <c r="AR20" t="s">
+        <v>80</v>
+      </c>
       <c r="AS20" t="s">
         <v>80</v>
       </c>
-      <c r="AU20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW20" t="s">
+      <c r="AT20" t="s">
         <v>79</v>
       </c>
       <c r="AX20" t="s">
         <v>80</v>
       </c>
+      <c r="AZ20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>80</v>
+      </c>
       <c r="BC20" t="s">
         <v>80</v>
       </c>
-      <c r="BD20" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>80</v>
-      </c>
       <c r="BF20" t="s">
         <v>80</v>
       </c>
-      <c r="BG20" t="s">
-        <v>80</v>
+      <c r="BH20" t="s">
+        <v>79</v>
       </c>
       <c r="BI20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB20" t="s">
         <v>160</v>
       </c>
-      <c r="BR20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>80</v>
-      </c>
-      <c r="BU20" s="1"/>
-      <c r="BV20" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW20" t="s">
-        <v>80</v>
-      </c>
-      <c r="BX20" t="s">
+      <c r="CC20" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CN20" s="1"/>
+      <c r="CO20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ20" t="s">
         <v>160</v>
       </c>
-      <c r="BY20" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ20" t="s">
+      <c r="CR20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -4836,9 +5341,6 @@
       <c r="R21" t="s">
         <v>79</v>
       </c>
-      <c r="S21" t="s">
-        <v>79</v>
-      </c>
       <c r="T21" t="s">
         <v>79</v>
       </c>
@@ -4846,13 +5348,10 @@
         <v>79</v>
       </c>
       <c r="V21" t="s">
-        <v>34</v>
-      </c>
-      <c r="W21" t="s">
         <v>79</v>
       </c>
       <c r="X21" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="Y21" t="s">
         <v>79</v>
@@ -4861,98 +5360,74 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s">
         <v>79</v>
       </c>
       <c r="AC21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s">
         <v>79</v>
       </c>
-      <c r="AL21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>80</v>
-      </c>
       <c r="AO21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AQ21" t="s">
         <v>80</v>
       </c>
       <c r="AR21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AS21" t="s">
         <v>80</v>
       </c>
-      <c r="AU21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>80</v>
+      <c r="AT21" t="s">
+        <v>79</v>
       </c>
       <c r="AX21" t="s">
         <v>80</v>
       </c>
+      <c r="AZ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>80</v>
+      </c>
       <c r="BC21" t="s">
         <v>80</v>
       </c>
       <c r="BD21" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF21" t="s">
         <v>80</v>
       </c>
-      <c r="BG21" t="s">
-        <v>80</v>
-      </c>
       <c r="BH21" t="s">
         <v>80</v>
       </c>
       <c r="BI21" t="s">
         <v>80</v>
       </c>
-      <c r="BP21" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS21" t="s">
+      <c r="BJ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM21" t="s">
         <v>80</v>
       </c>
       <c r="BV21" t="s">
         <v>80</v>
       </c>
-      <c r="BW21" t="s">
-        <v>80</v>
-      </c>
       <c r="BX21" t="s">
         <v>80</v>
       </c>
@@ -4962,8 +5437,38 @@
       <c r="BZ21" t="s">
         <v>80</v>
       </c>
+      <c r="CA21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR21" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="22" spans="1:86" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -5015,111 +5520,90 @@
       <c r="R22" t="s">
         <v>80</v>
       </c>
-      <c r="S22" t="s">
-        <v>79</v>
-      </c>
       <c r="T22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s">
         <v>80</v>
       </c>
       <c r="V22" t="s">
-        <v>34</v>
-      </c>
-      <c r="W22" t="s">
         <v>80</v>
       </c>
       <c r="X22" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="Y22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s">
         <v>79</v>
       </c>
       <c r="AA22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s">
         <v>79</v>
       </c>
       <c r="AC22" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s">
         <v>79</v>
       </c>
-      <c r="AF22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>80</v>
-      </c>
       <c r="AI22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AQ22" t="s">
         <v>80</v>
       </c>
+      <c r="AR22" t="s">
+        <v>80</v>
+      </c>
       <c r="AS22" t="s">
         <v>80</v>
       </c>
-      <c r="AU22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW22" t="s">
+      <c r="AT22" t="s">
         <v>80</v>
       </c>
       <c r="AX22" t="s">
         <v>80</v>
       </c>
+      <c r="AZ22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>80</v>
+      </c>
       <c r="BC22" t="s">
         <v>80</v>
       </c>
-      <c r="BD22" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>80</v>
-      </c>
       <c r="BF22" t="s">
         <v>80</v>
       </c>
-      <c r="BG22" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR22" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS22" t="s">
-        <v>80</v>
+      <c r="BH22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>79</v>
       </c>
       <c r="BV22" t="s">
         <v>80</v>
       </c>
-      <c r="BW22" t="s">
-        <v>80</v>
-      </c>
       <c r="BX22" t="s">
         <v>80</v>
       </c>
@@ -5129,8 +5613,29 @@
       <c r="BZ22" t="s">
         <v>80</v>
       </c>
+      <c r="CK22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR22" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:114" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -5180,127 +5685,2177 @@
       <c r="R23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S23" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="S23" s="7"/>
       <c r="T23" s="6" t="s">
         <v>79</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
-      <c r="AL23" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
       <c r="AO23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AY23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP23" s="6"/>
+      <c r="AS23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6" t="s">
         <v>80</v>
       </c>
       <c r="BA23" s="6" t="s">
         <v>80</v>
       </c>
       <c r="BB23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>80</v>
-      </c>
-      <c r="BJ23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BK23" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="6"/>
       <c r="BL23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="BM23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BO23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY23" t="s">
-        <v>80</v>
-      </c>
-      <c r="CA23" s="6"/>
-      <c r="CB23" s="6"/>
-      <c r="CC23" t="s">
+      <c r="BM23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN23" s="7"/>
+      <c r="BO23" s="7"/>
+      <c r="BP23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ23" s="6"/>
+      <c r="BR23" s="6"/>
+      <c r="BS23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT23" s="6"/>
+      <c r="BU23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW23" s="6"/>
+      <c r="CA23" t="s">
         <v>80</v>
       </c>
       <c r="CD23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE23" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF23" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG23" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH23" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="CE23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CK23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="CR23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CT23" s="6"/>
+      <c r="CU23" s="6"/>
+      <c r="CV23" s="6"/>
+      <c r="CW23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CX23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="CY23" t="s">
+        <v>80</v>
+      </c>
+      <c r="CZ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="DA23" t="s">
+        <v>80</v>
+      </c>
+      <c r="DB23" s="6"/>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>251</v>
       </c>
       <c r="B24" t="s">
         <v>252</v>
       </c>
-      <c r="AN24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" t="s">
+        <v>253</v>
+      </c>
+      <c r="O24" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" t="s">
+        <v>79</v>
+      </c>
+      <c r="T24" t="s">
+        <v>79</v>
+      </c>
+      <c r="V24" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>79</v>
+      </c>
+      <c r="CV24" t="s">
+        <v>79</v>
+      </c>
+      <c r="DC24" t="s">
+        <v>79</v>
+      </c>
+      <c r="DD24" t="s">
+        <v>79</v>
+      </c>
+      <c r="DE24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" t="s">
+        <v>250</v>
+      </c>
+      <c r="O25" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" t="s">
+        <v>80</v>
+      </c>
+      <c r="T25" t="s">
+        <v>79</v>
+      </c>
+      <c r="U25" t="s">
+        <v>79</v>
+      </c>
+      <c r="V25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" t="s">
+        <v>281</v>
+      </c>
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" t="s">
+        <v>282</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" t="s">
+        <v>296</v>
+      </c>
+      <c r="O26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26" t="s">
+        <v>79</v>
+      </c>
+      <c r="T26" t="s">
+        <v>79</v>
+      </c>
+      <c r="U26" t="s">
+        <v>80</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>80</v>
+      </c>
+      <c r="X26" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ26" t="s">
+        <v>80</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP26" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR26" t="s">
+        <v>80</v>
+      </c>
+      <c r="CX26" t="s">
+        <v>80</v>
+      </c>
+      <c r="DA26" t="s">
+        <v>79</v>
+      </c>
+      <c r="DE26" t="s">
+        <v>80</v>
+      </c>
+      <c r="DF26" t="s">
+        <v>80</v>
+      </c>
+      <c r="DG26" t="s">
+        <v>80</v>
+      </c>
+      <c r="DH26" t="s">
+        <v>80</v>
+      </c>
+      <c r="DI26" t="s">
+        <v>79</v>
+      </c>
+      <c r="DJ26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
+        <v>283</v>
+      </c>
+      <c r="K27" t="s">
+        <v>284</v>
+      </c>
+      <c r="L27" t="s">
+        <v>285</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" t="s">
+        <v>297</v>
+      </c>
+      <c r="O27" t="s">
+        <v>140</v>
+      </c>
+      <c r="P27" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" t="s">
+        <v>79</v>
+      </c>
+      <c r="S27" t="s">
+        <v>79</v>
+      </c>
+      <c r="T27" t="s">
+        <v>80</v>
+      </c>
+      <c r="U27" t="s">
+        <v>79</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s">
+        <v>80</v>
+      </c>
+      <c r="X27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ27" t="s">
+        <v>80</v>
+      </c>
+      <c r="CK27" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL27" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP27" t="s">
+        <v>79</v>
+      </c>
+      <c r="CR27" t="s">
+        <v>80</v>
+      </c>
+      <c r="CX27" t="s">
+        <v>79</v>
+      </c>
+      <c r="DA27" t="s">
+        <v>80</v>
+      </c>
+      <c r="DE27" t="s">
+        <v>80</v>
+      </c>
+      <c r="DF27" t="s">
+        <v>80</v>
+      </c>
+      <c r="DG27" t="s">
+        <v>80</v>
+      </c>
+      <c r="DH27" t="s">
+        <v>79</v>
+      </c>
+      <c r="DI27" t="s">
+        <v>34</v>
+      </c>
+      <c r="DJ27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s">
+        <v>286</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" t="s">
+        <v>298</v>
+      </c>
+      <c r="O28" t="s">
+        <v>140</v>
+      </c>
+      <c r="P28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" t="s">
+        <v>79</v>
+      </c>
+      <c r="S28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U28" t="s">
+        <v>79</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ28" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK28" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL28" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR28" t="s">
+        <v>80</v>
+      </c>
+      <c r="CX28" t="s">
+        <v>80</v>
+      </c>
+      <c r="DA28" t="s">
+        <v>80</v>
+      </c>
+      <c r="DE28" t="s">
+        <v>79</v>
+      </c>
+      <c r="DF28" t="s">
+        <v>80</v>
+      </c>
+      <c r="DG28" t="s">
+        <v>79</v>
+      </c>
+      <c r="DH28" t="s">
+        <v>80</v>
+      </c>
+      <c r="DI28" t="s">
+        <v>80</v>
+      </c>
+      <c r="DJ28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" t="s">
+        <v>287</v>
+      </c>
+      <c r="K29" t="s">
+        <v>288</v>
+      </c>
+      <c r="L29" t="s">
+        <v>289</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" t="s">
+        <v>299</v>
+      </c>
+      <c r="O29" t="s">
+        <v>140</v>
+      </c>
+      <c r="P29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" t="s">
+        <v>79</v>
+      </c>
+      <c r="S29" t="s">
+        <v>79</v>
+      </c>
+      <c r="T29" t="s">
+        <v>79</v>
+      </c>
+      <c r="U29" t="s">
+        <v>79</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="W29" t="s">
+        <v>80</v>
+      </c>
+      <c r="X29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB29" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ29" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK29" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL29" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP29" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR29" t="s">
+        <v>79</v>
+      </c>
+      <c r="CX29" t="s">
+        <v>80</v>
+      </c>
+      <c r="DA29" t="s">
+        <v>80</v>
+      </c>
+      <c r="DE29" t="s">
+        <v>80</v>
+      </c>
+      <c r="DF29" t="s">
+        <v>80</v>
+      </c>
+      <c r="DG29" t="s">
+        <v>80</v>
+      </c>
+      <c r="DH29" t="s">
+        <v>80</v>
+      </c>
+      <c r="DI29" t="s">
+        <v>79</v>
+      </c>
+      <c r="DJ29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" t="s">
+        <v>300</v>
+      </c>
+      <c r="O30" t="s">
+        <v>140</v>
+      </c>
+      <c r="P30" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" t="s">
+        <v>80</v>
+      </c>
+      <c r="S30" t="s">
+        <v>79</v>
+      </c>
+      <c r="T30" t="s">
+        <v>79</v>
+      </c>
+      <c r="U30" t="s">
+        <v>79</v>
+      </c>
+      <c r="V30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="W30" t="s">
+        <v>79</v>
+      </c>
+      <c r="X30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ30" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK30" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL30" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP30" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR30" t="s">
+        <v>80</v>
+      </c>
+      <c r="CX30" t="s">
+        <v>80</v>
+      </c>
+      <c r="DA30" t="s">
+        <v>80</v>
+      </c>
+      <c r="DE30" t="s">
+        <v>80</v>
+      </c>
+      <c r="DF30" t="s">
+        <v>80</v>
+      </c>
+      <c r="DG30" t="s">
+        <v>80</v>
+      </c>
+      <c r="DH30" t="s">
+        <v>80</v>
+      </c>
+      <c r="DI30" t="s">
+        <v>79</v>
+      </c>
+      <c r="DJ30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s">
+        <v>295</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" t="s">
+        <v>301</v>
+      </c>
+      <c r="O31" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" t="s">
+        <v>79</v>
+      </c>
+      <c r="S31" t="s">
+        <v>79</v>
+      </c>
+      <c r="T31" t="s">
+        <v>79</v>
+      </c>
+      <c r="U31" t="s">
+        <v>79</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="W31" t="s">
+        <v>80</v>
+      </c>
+      <c r="X31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ31" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK31" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL31" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP31" t="s">
+        <v>80</v>
+      </c>
+      <c r="CR31" t="s">
+        <v>80</v>
+      </c>
+      <c r="CX31" t="s">
+        <v>80</v>
+      </c>
+      <c r="DA31" t="s">
+        <v>80</v>
+      </c>
+      <c r="DE31" t="s">
+        <v>80</v>
+      </c>
+      <c r="DF31" t="s">
+        <v>80</v>
+      </c>
+      <c r="DG31" t="s">
+        <v>80</v>
+      </c>
+      <c r="DH31" t="s">
+        <v>80</v>
+      </c>
+      <c r="DI31" t="s">
+        <v>34</v>
+      </c>
+      <c r="DJ31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" t="s">
+        <v>350</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K32" t="s">
+        <v>353</v>
+      </c>
+      <c r="L32" t="s">
+        <v>354</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="O32" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" t="s">
+        <v>79</v>
+      </c>
+      <c r="S32" t="s">
+        <v>80</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX32" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>80</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:114" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" t="s">
+        <v>352</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" t="s">
+        <v>355</v>
+      </c>
+      <c r="K33" t="s">
+        <v>271</v>
+      </c>
+      <c r="L33" t="s">
+        <v>356</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" t="s">
+        <v>140</v>
+      </c>
+      <c r="P33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="DJ33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:114" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" t="s">
+        <v>357</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" t="s">
+        <v>249</v>
+      </c>
+      <c r="L34" t="s">
+        <v>358</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="U34" t="s">
+        <v>79</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>80</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>79</v>
+      </c>
+      <c r="CR34" t="s">
+        <v>80</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>80</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>79</v>
+      </c>
+      <c r="DA34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="DJ34" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/notebooks/LZTR1/input/LZTR1_NS2_individuals.xlsx
+++ b/notebooks/LZTR1/input/LZTR1_NS2_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/LZTR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FE8626-FF27-5D40-98A1-764DC482BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7C2CC4-E54B-6740-844C-EA30B44E7A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="9300" windowWidth="37900" windowHeight="8120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1552,7 +1552,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="A2:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2253,7 +2253,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:114" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:114" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="DB23" s="6"/>
     </row>
-    <row r="24" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>265</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>273</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>273</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>273</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>273</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>273</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>273</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:114" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>348</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:114" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>348</v>
       </c>
